--- a/subDM/subNormDM/medidasEspaciosdecolorDM.xlsx
+++ b/subDM/subNormDM/medidasEspaciosdecolorDM.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="19">
   <si>
     <t>RGB</t>
   </si>
@@ -82,8 +82,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -109,7 +110,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,6 +129,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -141,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -159,14 +166,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -198,27 +216,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -241,12 +239,12 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="C00000"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
-              <a:prstDash val="solid"/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -370,187 +368,13 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7597-4468-A515-B441BDC0C5C1}"/>
+              <c16:uniqueId val="{00000000-A0E6-4400-A59D-583FEA9657C3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1414438335"/>
-        <c:axId val="1414439167"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1414438335"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1414439167"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1414439167"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1414438335"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Hoja1!$D$178</c:f>
@@ -564,17 +388,17 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="00B0F0"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
-              <a:prstDash val="solid"/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$C$179:$C$195</c:f>
+              <c:f>Hoja1!$A$179:$A$195</c:f>
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
@@ -693,7 +517,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5C55-4AEB-91C9-41D30E4DFF80}"/>
+              <c16:uniqueId val="{00000002-A0E6-4400-A59D-583FEA9657C3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -705,18 +529,77 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1838094751"/>
-        <c:axId val="1838088927"/>
+        <c:gapWidth val="150"/>
+        <c:axId val="539041103"/>
+        <c:axId val="539058159"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1838094751"/>
+        <c:axId val="539041103"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Espacios de color</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -730,16 +613,16 @@
                 <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -754,7 +637,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1838088927"/>
+        <c:crossAx val="539058159"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -762,7 +645,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1838088927"/>
+        <c:axId val="539058159"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -777,28 +660,88 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Media</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
             <a:noFill/>
-            <a:prstDash val="solid"/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -813,15 +756,79 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1838094751"/>
+        <c:crossAx val="539041103"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -830,7 +837,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -844,27 +851,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -876,79 +863,62 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$F$178</c:f>
+              <c:f>Hoja1!$I$179</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Euclidiana</c:v>
+                  <c:v>Correlación</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="C00000"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
-              <a:prstDash val="solid"/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$E$179:$E$195</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$H$180:$H$196</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Hoja1!$H$180,Hoja1!$H$183:$H$184,Hoja1!$H$187:$H$189,Hoja1!$H$192,Hoja1!$H$195:$H$196)</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>RGB</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>R</c:v>
+                  <c:v>B</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>G</c:v>
+                  <c:v>HSV</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>B</c:v>
+                  <c:v>V</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>HSV</c:v>
+                  <c:v>YUV</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>H</c:v>
+                  <c:v>Y</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>S</c:v>
+                  <c:v>XYZ</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>V</c:v>
+                  <c:v>Z</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>YUV</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Y</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>U</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>V</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>XYZ</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>X</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Y</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Z</c:v>
-                </c:pt>
-                <c:pt idx="16">
                   <c:v>GRIS</c:v>
                 </c:pt>
               </c:strCache>
@@ -956,67 +926,165 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$F$179:$F$195</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$I$180:$I$196</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Hoja1!$I$180,Hoja1!$I$183:$I$184,Hoja1!$I$187:$I$189,Hoja1!$I$192,Hoja1!$I$195:$I$196)</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>42541.674899304257</c:v>
+                  <c:v>0.2935330446239931</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43743.628088525977</c:v>
+                  <c:v>0.33891206925747608</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42678.512114375473</c:v>
+                  <c:v>0.32895604058961336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41202.884495011298</c:v>
+                  <c:v>0.34256605268434154</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64473.608543549206</c:v>
+                  <c:v>0.28259624074059714</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>104952.33081348833</c:v>
+                  <c:v>0.30915518161913275</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48625.579316288589</c:v>
+                  <c:v>0.27711478886317831</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39842.915500870673</c:v>
+                  <c:v>0.33999446116974236</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>95593.799373274407</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42257.48299251694</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>117283.90346738517</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>127240.01165992093</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44495.679058519221</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43079.948495152486</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42343.946978833301</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>48063.141701571913</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42257.48299251694</c:v>
+                  <c:v>0.30915518161913275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AAB3-4156-BB5E-5F3F34615DAA}"/>
+              <c16:uniqueId val="{00000000-8767-4A1B-9804-4AC98D1890BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$K$179</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bhattacharyya</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$H$180:$H$196</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Hoja1!$H$180,Hoja1!$H$183:$H$184,Hoja1!$H$187:$H$189,Hoja1!$H$192,Hoja1!$H$195:$H$196)</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>RGB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HSV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>YUV</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Y</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>XYZ</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Z</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>GRIS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$K$180:$K$196</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Hoja1!$K$180,Hoja1!$K$183:$K$184,Hoja1!$K$187:$K$189,Hoja1!$K$192,Hoja1!$K$195:$K$196)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.18708992955791137</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18805313223955075</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17867102489494938</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18109524119781889</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18487526475799715</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17664727170737507</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18219449465948212</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18607868597135532</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17664727170737507</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8767-4A1B-9804-4AC98D1890BA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1028,18 +1096,77 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1760607615"/>
-        <c:axId val="1760608031"/>
+        <c:gapWidth val="150"/>
+        <c:axId val="485680975"/>
+        <c:axId val="485683055"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1760607615"/>
+        <c:axId val="485680975"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Espacios de color</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1053,16 +1180,16 @@
                 <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1077,7 +1204,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1760608031"/>
+        <c:crossAx val="485683055"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1085,7 +1212,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1760608031"/>
+        <c:axId val="485683055"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1100,28 +1227,101 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Desviación</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CO" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> Estandar</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CO" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
             <a:noFill/>
-            <a:prstDash val="solid"/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1136,15 +1336,79 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1760607615"/>
+        <c:crossAx val="485680975"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1153,24 +1417,1110 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>176</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>90486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1187,20 +2537,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>190</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>205</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="6" name="Gráfico 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1210,36 +2560,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>205</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1511,10 +2831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:BA195"/>
+  <dimension ref="A2:BA197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR163" workbookViewId="0">
-      <selection activeCell="BB175" sqref="BB175"/>
+    <sheetView tabSelected="1" topLeftCell="G192" workbookViewId="0">
+      <selection activeCell="R195" sqref="R195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1525,92 +2845,92 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="F2" s="9" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="F2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="9" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="9" t="s">
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="9" t="s">
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="9" t="s">
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="9" t="s">
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="9" t="s">
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="9" t="s">
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="9" t="s">
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="9" t="s">
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="10"/>
-      <c r="AJ2" s="9" t="s">
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="10"/>
-      <c r="AM2" s="9" t="s">
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AN2" s="10"/>
-      <c r="AO2" s="10"/>
-      <c r="AP2" s="9" t="s">
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="15"/>
+      <c r="AP2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AQ2" s="10"/>
-      <c r="AR2" s="10"/>
-      <c r="AS2" s="9" t="s">
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="15"/>
+      <c r="AS2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="AT2" s="10"/>
-      <c r="AU2" s="10"/>
-      <c r="AV2" s="9" t="s">
+      <c r="AT2" s="15"/>
+      <c r="AU2" s="15"/>
+      <c r="AV2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AW2" s="10"/>
-      <c r="AX2" s="10"/>
-      <c r="AY2" s="9" t="s">
+      <c r="AW2" s="15"/>
+      <c r="AX2" s="15"/>
+      <c r="AY2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="AZ2" s="10"/>
-      <c r="BA2" s="10"/>
+      <c r="AZ2" s="15"/>
+      <c r="BA2" s="15"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -27362,21 +28682,21 @@
       </c>
     </row>
     <row r="170" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A170" s="11" t="s">
+      <c r="A170" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B170" s="11"/>
-      <c r="C170" s="11"/>
-      <c r="D170" s="9" t="s">
+      <c r="B170" s="16"/>
+      <c r="C170" s="16"/>
+      <c r="D170" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E170" s="9"/>
-      <c r="F170" s="9"/>
-      <c r="G170" s="9" t="s">
+      <c r="E170" s="14"/>
+      <c r="F170" s="14"/>
+      <c r="G170" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H170" s="9"/>
-      <c r="I170" s="9"/>
+      <c r="H170" s="14"/>
+      <c r="I170" s="14"/>
       <c r="J170" s="5" t="s">
         <v>3</v>
       </c>
@@ -27397,11 +28717,11 @@
       </c>
       <c r="T170" s="6"/>
       <c r="U170" s="6"/>
-      <c r="V170" s="12" t="s">
+      <c r="V170" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="W170" s="13"/>
-      <c r="X170" s="13"/>
+      <c r="W170" s="12"/>
+      <c r="X170" s="12"/>
       <c r="Y170" s="5" t="s">
         <v>8</v>
       </c>
@@ -27512,13 +28832,13 @@
       <c r="U171" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V171" s="12" t="s">
+      <c r="V171" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="W171" s="12" t="s">
+      <c r="W171" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="X171" s="12" t="s">
+      <c r="X171" s="11" t="s">
         <v>17</v>
       </c>
       <c r="Y171" s="5" t="s">
@@ -27688,15 +29008,15 @@
         <f t="shared" si="0"/>
         <v>48625.579316288589</v>
       </c>
-      <c r="V172" s="14">
+      <c r="V172" s="13">
         <f t="shared" si="0"/>
         <v>0.24213734260211495</v>
       </c>
-      <c r="W172" s="14">
+      <c r="W172" s="13">
         <f t="shared" si="0"/>
         <v>0.55916963289771771</v>
       </c>
-      <c r="X172" s="14">
+      <c r="X172" s="13">
         <f t="shared" si="0"/>
         <v>39842.915500870673</v>
       </c>
@@ -27894,15 +29214,15 @@
         <f t="shared" si="1"/>
         <v>43912.725065712621</v>
       </c>
-      <c r="V173" s="14">
+      <c r="V173" s="13">
         <f t="shared" si="1"/>
         <v>0.34256605268434154</v>
       </c>
-      <c r="W173" s="14">
+      <c r="W173" s="13">
         <f t="shared" si="1"/>
         <v>0.18109524119781889</v>
       </c>
-      <c r="X173" s="14">
+      <c r="X173" s="13">
         <f t="shared" si="1"/>
         <v>33791.928620504514</v>
       </c>
@@ -28274,7 +29594,7 @@
         <v>6396.303766185687</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B178" s="4" t="s">
         <v>15</v>
       </c>
@@ -28287,30 +29607,42 @@
         <v>17</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B179" s="2">
+      <c r="B179" s="19">
         <f>A172</f>
         <v>0.45357269389245919</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D179" s="2">
+      <c r="D179" s="19">
         <f>B172</f>
         <v>0.56380811356350868</v>
       </c>
-      <c r="E179" t="s">
+      <c r="E179" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F179" s="2">
+      <c r="F179" s="19">
         <f>C172</f>
         <v>42541.674899304257</v>
       </c>
+      <c r="H179" s="10"/>
+      <c r="I179" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J179" s="10"/>
+      <c r="K179" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L179" s="10"/>
+      <c r="M179" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>1</v>
       </c>
@@ -28332,8 +29664,29 @@
         <f>F172</f>
         <v>43743.628088525977</v>
       </c>
+      <c r="H180" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="I180" s="17">
+        <f>A173</f>
+        <v>0.2935330446239931</v>
+      </c>
+      <c r="J180" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="K180" s="17">
+        <f>B173</f>
+        <v>0.18708992955791137</v>
+      </c>
+      <c r="L180" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M180" s="17">
+        <f>C173</f>
+        <v>35917.028897417949</v>
+      </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>2</v>
       </c>
@@ -28355,55 +29708,118 @@
         <f>I172</f>
         <v>42678.512114375473</v>
       </c>
+      <c r="H181" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="I181" s="21">
+        <f>D173</f>
+        <v>0.30346453680635954</v>
+      </c>
+      <c r="J181" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="K181" s="21">
+        <f>E173</f>
+        <v>0.17701712429398545</v>
+      </c>
+      <c r="L181" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="M181" s="21">
+        <f>F173</f>
+        <v>36594.904084997412</v>
+      </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B182" s="2">
+      <c r="B182" s="19">
         <f>J172</f>
         <v>0.24804974397253318</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C182" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D182" s="2">
+      <c r="D182" s="19">
         <f>K172</f>
         <v>0.55865826209011571</v>
       </c>
-      <c r="E182" t="s">
+      <c r="E182" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F182" s="2">
+      <c r="F182" s="19">
         <f>L172</f>
         <v>41202.884495011298</v>
       </c>
+      <c r="H182" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I182" s="22">
+        <f>G173</f>
+        <v>0.31266807087887832</v>
+      </c>
+      <c r="J182" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="K182" s="22">
+        <f>H173</f>
+        <v>0.17813446796592031</v>
+      </c>
+      <c r="L182" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="M182" s="22">
+        <f>I173</f>
+        <v>37744.623472792366</v>
+      </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B183" s="2">
+      <c r="B183" s="19">
         <f>M172</f>
         <v>0.36011713643315835</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C183" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D183" s="2">
+      <c r="D183" s="19">
         <f>N172</f>
         <v>0.59186516993139215</v>
       </c>
-      <c r="E183" t="s">
+      <c r="E183" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F183" s="2">
+      <c r="F183" s="19">
         <f>O172</f>
         <v>64473.608543549206</v>
       </c>
       <c r="G183" s="2"/>
+      <c r="H183" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I183" s="17">
+        <f>J173</f>
+        <v>0.33891206925747608</v>
+      </c>
+      <c r="J183" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K183" s="17">
+        <f>K173</f>
+        <v>0.18805313223955075</v>
+      </c>
+      <c r="L183" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M183" s="17">
+        <f>L173</f>
+        <v>34988.081860482656</v>
+      </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>5</v>
       </c>
@@ -28425,8 +29841,29 @@
         <f>R172</f>
         <v>104952.33081348833</v>
       </c>
+      <c r="H184" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I184" s="17">
+        <f>M173</f>
+        <v>0.32895604058961336</v>
+      </c>
+      <c r="J184" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="K184" s="17">
+        <f>N173</f>
+        <v>0.17867102489494938</v>
+      </c>
+      <c r="L184" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="M184" s="17">
+        <f>O173</f>
+        <v>59381.691897960482</v>
+      </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>6</v>
       </c>
@@ -28448,8 +29885,29 @@
         <f>U172</f>
         <v>48625.579316288589</v>
       </c>
+      <c r="H185" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I185" s="22">
+        <f>P173</f>
+        <v>0.29926962688053621</v>
+      </c>
+      <c r="J185" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K185" s="22">
+        <f>Q173</f>
+        <v>0.20263459175691312</v>
+      </c>
+      <c r="L185" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="M185" s="22">
+        <f>R173</f>
+        <v>108984.22855936462</v>
+      </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>7</v>
       </c>
@@ -28457,22 +29915,43 @@
         <f>V172</f>
         <v>0.24213734260211495</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C186" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D186" s="2">
+      <c r="D186" s="19">
         <f>W172</f>
         <v>0.55916963289771771</v>
       </c>
-      <c r="E186" t="s">
+      <c r="E186" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F186" s="2">
+      <c r="F186" s="19">
         <f>X172</f>
         <v>39842.915500870673</v>
       </c>
+      <c r="H186" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I186" s="22">
+        <f>S173</f>
+        <v>0.23906567464697648</v>
+      </c>
+      <c r="J186" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K186" s="22">
+        <f>T173</f>
+        <v>0.18012499073453947</v>
+      </c>
+      <c r="L186" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M186" s="22">
+        <f>U173</f>
+        <v>43912.725065712621</v>
+      </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>8</v>
       </c>
@@ -28480,45 +29959,87 @@
         <f>Y172</f>
         <v>0.52900443396340446</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C187" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D187" s="2">
+      <c r="D187" s="19">
         <f>Z172</f>
         <v>0.51975772239484508</v>
       </c>
-      <c r="E187" t="s">
+      <c r="E187" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F187" s="2">
+      <c r="F187" s="19">
         <f>AA172</f>
         <v>95593.799373274407</v>
       </c>
+      <c r="H187" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I187" s="17">
+        <f>V173</f>
+        <v>0.34256605268434154</v>
+      </c>
+      <c r="J187" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K187" s="17">
+        <f>W173</f>
+        <v>0.18109524119781889</v>
+      </c>
+      <c r="L187" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M187" s="17">
+        <f>X173</f>
+        <v>33791.928620504514</v>
+      </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B188" s="2">
+      <c r="B188" s="19">
         <f>AB172</f>
         <v>0.369641999646875</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C188" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D188" s="2">
+      <c r="D188" s="19">
         <f>AC172</f>
         <v>0.52535277977475492</v>
       </c>
-      <c r="E188" t="s">
+      <c r="E188" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F188" s="2">
+      <c r="F188" s="19">
         <f>AD172</f>
         <v>42257.48299251694</v>
       </c>
+      <c r="H188" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I188" s="17">
+        <f>Y173</f>
+        <v>0.28259624074059714</v>
+      </c>
+      <c r="J188" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="K188" s="17">
+        <f>Z173</f>
+        <v>0.18487526475799715</v>
+      </c>
+      <c r="L188" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="M188" s="17">
+        <f>AA173</f>
+        <v>100082.53335819198</v>
+      </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>10</v>
       </c>
@@ -28540,8 +30061,29 @@
         <f>AG172</f>
         <v>117283.90346738517</v>
       </c>
+      <c r="H189" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I189" s="17">
+        <f>AB173</f>
+        <v>0.30915518161913275</v>
+      </c>
+      <c r="J189" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K189" s="17">
+        <f>AC173</f>
+        <v>0.17664727170737507</v>
+      </c>
+      <c r="L189" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M189" s="17">
+        <f>AD173</f>
+        <v>35861.179226331253</v>
+      </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>7</v>
       </c>
@@ -28563,31 +30105,73 @@
         <f>AJ172</f>
         <v>127240.01165992093</v>
       </c>
+      <c r="H190" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I190" s="22">
+        <f>AE173</f>
+        <v>0.2461139076667696</v>
+      </c>
+      <c r="J190" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K190" s="22">
+        <f>AF173</f>
+        <v>0.17800713822098949</v>
+      </c>
+      <c r="L190" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M190" s="22">
+        <f>AG173</f>
+        <v>139138.43451800779</v>
+      </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B191" s="2">
+      <c r="B191" s="19">
         <f>AK172</f>
         <v>0.49158680638769803</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C191" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D191" s="2">
+      <c r="D191" s="19">
         <f>AL172</f>
         <v>0.54056245797914348</v>
       </c>
-      <c r="E191" t="s">
+      <c r="E191" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F191" s="2">
+      <c r="F191" s="19">
         <f>AM172</f>
         <v>44495.679058519221</v>
       </c>
+      <c r="H191" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I191" s="22">
+        <f>AH173</f>
+        <v>0.24367935250583134</v>
+      </c>
+      <c r="J191" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="K191" s="22">
+        <f>AI173</f>
+        <v>0.17934631275399712</v>
+      </c>
+      <c r="L191" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="M191" s="22">
+        <f>AJ173</f>
+        <v>139986.61260870815</v>
+      </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>12</v>
       </c>
@@ -28609,8 +30193,29 @@
         <f>AP172</f>
         <v>43079.948495152486</v>
       </c>
+      <c r="H192" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I192" s="17">
+        <f>AK173</f>
+        <v>0.27711478886317831</v>
+      </c>
+      <c r="J192" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="17">
+        <f>AL173</f>
+        <v>0.18219449465948212</v>
+      </c>
+      <c r="L192" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="M192" s="17">
+        <f>AM173</f>
+        <v>39093.668300846919</v>
+      </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>9</v>
       </c>
@@ -28632,31 +30237,73 @@
         <f>AS172</f>
         <v>42343.946978833301</v>
       </c>
+      <c r="H193" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I193" s="22">
+        <f>AN173</f>
+        <v>0.29824013658866766</v>
+      </c>
+      <c r="J193" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="K193" s="22">
+        <f>AO173</f>
+        <v>0.17571712047662397</v>
+      </c>
+      <c r="L193" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="M193" s="22">
+        <f>AP173</f>
+        <v>36366.477665200677</v>
+      </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B194" s="2">
+      <c r="B194" s="19">
         <f>AT172</f>
         <v>0.28139741842409938</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C194" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D194" s="2">
+      <c r="D194" s="19">
         <f>AU172</f>
         <v>0.55651247006542781</v>
       </c>
-      <c r="E194" t="s">
+      <c r="E194" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F194" s="2">
+      <c r="F194" s="19">
         <f>AV172</f>
         <v>48063.141701571913</v>
       </c>
+      <c r="H194" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I194" s="22">
+        <f>AQ173</f>
+        <v>0.30807714949360582</v>
+      </c>
+      <c r="J194" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K194" s="22">
+        <f>AR173</f>
+        <v>0.17795057904426798</v>
+      </c>
+      <c r="L194" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="M194" s="22">
+        <f>AS173</f>
+        <v>36325.266095582985</v>
+      </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>18</v>
       </c>
@@ -28678,9 +30325,68 @@
         <f>AY172</f>
         <v>42257.48299251694</v>
       </c>
+      <c r="H195" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I195" s="17">
+        <f>AT173</f>
+        <v>0.33999446116974236</v>
+      </c>
+      <c r="J195" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K195" s="17">
+        <f>AU173</f>
+        <v>0.18607868597135532</v>
+      </c>
+      <c r="L195" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M195" s="17">
+        <f>AV173</f>
+        <v>48635.790090594972</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H196" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I196" s="22">
+        <f>AW173</f>
+        <v>0.30915518161913275</v>
+      </c>
+      <c r="J196" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K196" s="22">
+        <f>AX173</f>
+        <v>0.17664727170737507</v>
+      </c>
+      <c r="L196" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M196" s="22">
+        <f>AY173</f>
+        <v>35861.179226331253</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H197" s="20"/>
+      <c r="I197" s="20"/>
+      <c r="J197" s="20"/>
+      <c r="K197" s="20"/>
+      <c r="L197" s="20"/>
+      <c r="M197" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="D170:F170"/>
+    <mergeCell ref="G170:I170"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -28689,18 +30395,11 @@
     <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="AS2:AU2"/>
     <mergeCell ref="AV2:AX2"/>
-    <mergeCell ref="A170:C170"/>
-    <mergeCell ref="D170:F170"/>
-    <mergeCell ref="G170:I170"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="O2:Q2"/>
     <mergeCell ref="AA2:AC2"/>
     <mergeCell ref="AM2:AO2"/>
     <mergeCell ref="AD2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/subDM/subNormDM/medidasEspaciosdecolorDM.xlsx
+++ b/subDM/subNormDM/medidasEspaciosdecolorDM.xlsx
@@ -171,13 +171,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -185,6 +178,13 @@
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -891,9 +891,9 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Hoja1!$H$180,Hoja1!$H$183:$H$184,Hoja1!$H$187:$H$189,Hoja1!$H$192,Hoja1!$H$195:$H$196)</c:f>
+              <c:f>(Hoja1!$H$180,Hoja1!$H$183:$H$189,Hoja1!$H$192,Hoja1!$H$195:$H$196)</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>RGB</c:v>
                 </c:pt>
@@ -904,21 +904,27 @@
                   <c:v>HSV</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>H</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>V</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>YUV</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>Y</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>XYZ</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Z</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>GRIS</c:v>
                 </c:pt>
               </c:strCache>
@@ -933,10 +939,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Hoja1!$I$180,Hoja1!$I$183:$I$184,Hoja1!$I$187:$I$189,Hoja1!$I$192,Hoja1!$I$195:$I$196)</c:f>
+              <c:f>(Hoja1!$I$180,Hoja1!$I$183:$I$189,Hoja1!$I$192,Hoja1!$I$195:$I$196)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.2935330446239931</c:v>
                 </c:pt>
@@ -947,21 +953,27 @@
                   <c:v>0.32895604058961336</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.29926962688053621</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23906567464697648</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.34256605268434154</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>0.28259624074059714</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>0.30915518161913275</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>0.27711478886317831</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>0.33999446116974236</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>0.30915518161913275</c:v>
                 </c:pt>
               </c:numCache>
@@ -1006,9 +1018,9 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Hoja1!$H$180,Hoja1!$H$183:$H$184,Hoja1!$H$187:$H$189,Hoja1!$H$192,Hoja1!$H$195:$H$196)</c:f>
+              <c:f>(Hoja1!$H$180,Hoja1!$H$183:$H$189,Hoja1!$H$192,Hoja1!$H$195:$H$196)</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>RGB</c:v>
                 </c:pt>
@@ -1019,21 +1031,27 @@
                   <c:v>HSV</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>H</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>V</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>YUV</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>Y</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>XYZ</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Z</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>GRIS</c:v>
                 </c:pt>
               </c:strCache>
@@ -1048,10 +1066,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Hoja1!$K$180,Hoja1!$K$183:$K$184,Hoja1!$K$187:$K$189,Hoja1!$K$192,Hoja1!$K$195:$K$196)</c:f>
+              <c:f>(Hoja1!$K$180,Hoja1!$K$183:$K$189,Hoja1!$K$192,Hoja1!$K$195:$K$196)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.18708992955791137</c:v>
                 </c:pt>
@@ -1062,21 +1080,27 @@
                   <c:v>0.17867102489494938</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.20263459175691312</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18012499073453947</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.18109524119781889</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>0.18487526475799715</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>0.17664727170737507</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>0.18219449465948212</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>0.18607868597135532</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>0.17664727170737507</c:v>
                 </c:pt>
               </c:numCache>
@@ -1417,6 +1441,623 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$I$179</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Correlación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$H$180:$H$196</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Hoja1!$H$180,Hoja1!$H$183:$H$189,Hoja1!$H$192,Hoja1!$H$195:$H$196)</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>RGB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HSV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>H</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>V</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>YUV</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Y</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>XYZ</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Z</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>GRIS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$I$180:$I$196</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Hoja1!$I$180,Hoja1!$I$183:$I$189,Hoja1!$I$192,Hoja1!$I$195:$I$196)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.2935330446239931</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33891206925747608</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32895604058961336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29926962688053621</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23906567464697648</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34256605268434154</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28259624074059714</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.30915518161913275</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.27711478886317831</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.33999446116974236</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.30915518161913275</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9AA9-4A8A-930D-CF18E7872B39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$K$179</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bhattacharyya</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$H$180:$H$196</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Hoja1!$H$180,Hoja1!$H$183:$H$189,Hoja1!$H$192,Hoja1!$H$195:$H$196)</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>RGB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HSV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>H</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>V</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>YUV</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Y</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>XYZ</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Z</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>GRIS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Hoja1!$K$180:$K$196</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Hoja1!$K$180,Hoja1!$K$183:$K$189,Hoja1!$K$192,Hoja1!$K$195:$K$196)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.18708992955791137</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18805313223955075</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17867102489494938</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20263459175691312</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18012499073453947</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18109524119781889</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18487526475799715</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17664727170737507</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18219449465948212</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18607868597135532</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.17664727170737507</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9AA9-4A8A-930D-CF18E7872B39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="125"/>
+        <c:axId val="485680975"/>
+        <c:axId val="485683055"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="485680975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO" sz="1400" b="1"/>
+                  <a:t>Espacios de color</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485683055"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="485683055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO" sz="1800" b="1"/>
+                  <a:t>Desviación Estandar</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.2101099819269996E-2"/>
+              <c:y val="0.14544253189281575"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485680975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1458,6 +2099,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2503,6 +3184,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2560,6 +3744,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2833,8 +4047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BA197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G192" workbookViewId="0">
-      <selection activeCell="R195" sqref="R195"/>
+    <sheetView tabSelected="1" topLeftCell="R222" workbookViewId="0">
+      <selection activeCell="AD236" sqref="AD236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2845,92 +4059,92 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="F2" s="14" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="F2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="14" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="14" t="s">
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="14" t="s">
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="14" t="s">
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="14" t="s">
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="14" t="s">
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="14" t="s">
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="14" t="s">
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="14" t="s">
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="14" t="s">
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="15"/>
-      <c r="AM2" s="14" t="s">
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AN2" s="15"/>
-      <c r="AO2" s="15"/>
-      <c r="AP2" s="14" t="s">
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AQ2" s="15"/>
-      <c r="AR2" s="15"/>
-      <c r="AS2" s="14" t="s">
+      <c r="AQ2" s="23"/>
+      <c r="AR2" s="23"/>
+      <c r="AS2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="AT2" s="15"/>
-      <c r="AU2" s="15"/>
-      <c r="AV2" s="14" t="s">
+      <c r="AT2" s="23"/>
+      <c r="AU2" s="23"/>
+      <c r="AV2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="AW2" s="15"/>
-      <c r="AX2" s="15"/>
-      <c r="AY2" s="14" t="s">
+      <c r="AW2" s="23"/>
+      <c r="AX2" s="23"/>
+      <c r="AY2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="AZ2" s="15"/>
-      <c r="BA2" s="15"/>
+      <c r="AZ2" s="23"/>
+      <c r="BA2" s="23"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -28682,21 +29896,21 @@
       </c>
     </row>
     <row r="170" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A170" s="16" t="s">
+      <c r="A170" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B170" s="16"/>
-      <c r="C170" s="16"/>
-      <c r="D170" s="14" t="s">
+      <c r="B170" s="21"/>
+      <c r="C170" s="21"/>
+      <c r="D170" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E170" s="14"/>
-      <c r="F170" s="14"/>
-      <c r="G170" s="14" t="s">
+      <c r="E170" s="22"/>
+      <c r="F170" s="22"/>
+      <c r="G170" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H170" s="14"/>
-      <c r="I170" s="14"/>
+      <c r="H170" s="22"/>
+      <c r="I170" s="22"/>
       <c r="J170" s="5" t="s">
         <v>3</v>
       </c>
@@ -29611,21 +30825,21 @@
       <c r="A179" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B179" s="19">
+      <c r="B179" s="16">
         <f>A172</f>
         <v>0.45357269389245919</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D179" s="19">
+      <c r="D179" s="16">
         <f>B172</f>
         <v>0.56380811356350868</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F179" s="19">
+      <c r="F179" s="16">
         <f>C172</f>
         <v>42541.674899304257</v>
       </c>
@@ -29664,24 +30878,24 @@
         <f>F172</f>
         <v>43743.628088525977</v>
       </c>
-      <c r="H180" s="23" t="s">
+      <c r="H180" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I180" s="17">
+      <c r="I180" s="14">
         <f>A173</f>
         <v>0.2935330446239931</v>
       </c>
-      <c r="J180" s="23" t="s">
+      <c r="J180" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="K180" s="17">
+      <c r="K180" s="14">
         <f>B173</f>
         <v>0.18708992955791137</v>
       </c>
-      <c r="L180" s="23" t="s">
+      <c r="L180" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M180" s="17">
+      <c r="M180" s="14">
         <f>C173</f>
         <v>35917.028897417949</v>
       </c>
@@ -29708,24 +30922,24 @@
         <f>I172</f>
         <v>42678.512114375473</v>
       </c>
-      <c r="H181" s="18" t="s">
+      <c r="H181" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="I181" s="21">
+      <c r="I181" s="18">
         <f>D173</f>
         <v>0.30346453680635954</v>
       </c>
-      <c r="J181" s="18" t="s">
+      <c r="J181" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="K181" s="21">
+      <c r="K181" s="18">
         <f>E173</f>
         <v>0.17701712429398545</v>
       </c>
-      <c r="L181" s="18" t="s">
+      <c r="L181" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="M181" s="21">
+      <c r="M181" s="18">
         <f>F173</f>
         <v>36594.904084997412</v>
       </c>
@@ -29734,42 +30948,42 @@
       <c r="A182" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B182" s="19">
+      <c r="B182" s="16">
         <f>J172</f>
         <v>0.24804974397253318</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D182" s="19">
+      <c r="D182" s="16">
         <f>K172</f>
         <v>0.55865826209011571</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F182" s="19">
+      <c r="F182" s="16">
         <f>L172</f>
         <v>41202.884495011298</v>
       </c>
-      <c r="H182" s="20" t="s">
+      <c r="H182" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="I182" s="22">
+      <c r="I182" s="19">
         <f>G173</f>
         <v>0.31266807087887832</v>
       </c>
-      <c r="J182" s="20" t="s">
+      <c r="J182" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="K182" s="22">
+      <c r="K182" s="19">
         <f>H173</f>
         <v>0.17813446796592031</v>
       </c>
-      <c r="L182" s="20" t="s">
+      <c r="L182" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="M182" s="22">
+      <c r="M182" s="19">
         <f>I173</f>
         <v>37744.623472792366</v>
       </c>
@@ -29778,21 +30992,21 @@
       <c r="A183" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B183" s="19">
+      <c r="B183" s="16">
         <f>M172</f>
         <v>0.36011713643315835</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D183" s="19">
+      <c r="D183" s="16">
         <f>N172</f>
         <v>0.59186516993139215</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F183" s="19">
+      <c r="F183" s="16">
         <f>O172</f>
         <v>64473.608543549206</v>
       </c>
@@ -29800,21 +31014,21 @@
       <c r="H183" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I183" s="17">
+      <c r="I183" s="14">
         <f>J173</f>
         <v>0.33891206925747608</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K183" s="17">
+      <c r="K183" s="14">
         <f>K173</f>
         <v>0.18805313223955075</v>
       </c>
       <c r="L183" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M183" s="17">
+      <c r="M183" s="14">
         <f>L173</f>
         <v>34988.081860482656</v>
       </c>
@@ -29841,24 +31055,24 @@
         <f>R172</f>
         <v>104952.33081348833</v>
       </c>
-      <c r="H184" s="23" t="s">
+      <c r="H184" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I184" s="17">
+      <c r="I184" s="14">
         <f>M173</f>
         <v>0.32895604058961336</v>
       </c>
-      <c r="J184" s="23" t="s">
+      <c r="J184" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="K184" s="17">
+      <c r="K184" s="14">
         <f>N173</f>
         <v>0.17867102489494938</v>
       </c>
-      <c r="L184" s="23" t="s">
+      <c r="L184" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M184" s="17">
+      <c r="M184" s="14">
         <f>O173</f>
         <v>59381.691897960482</v>
       </c>
@@ -29885,24 +31099,24 @@
         <f>U172</f>
         <v>48625.579316288589</v>
       </c>
-      <c r="H185" s="20" t="s">
+      <c r="H185" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I185" s="22">
+      <c r="I185" s="19">
         <f>P173</f>
         <v>0.29926962688053621</v>
       </c>
-      <c r="J185" s="20" t="s">
+      <c r="J185" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="K185" s="22">
+      <c r="K185" s="19">
         <f>Q173</f>
         <v>0.20263459175691312</v>
       </c>
-      <c r="L185" s="20" t="s">
+      <c r="L185" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="M185" s="22">
+      <c r="M185" s="19">
         <f>R173</f>
         <v>108984.22855936462</v>
       </c>
@@ -29918,35 +31132,35 @@
       <c r="C186" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D186" s="19">
+      <c r="D186" s="16">
         <f>W172</f>
         <v>0.55916963289771771</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F186" s="19">
+      <c r="F186" s="16">
         <f>X172</f>
         <v>39842.915500870673</v>
       </c>
-      <c r="H186" s="20" t="s">
+      <c r="H186" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I186" s="22">
+      <c r="I186" s="19">
         <f>S173</f>
         <v>0.23906567464697648</v>
       </c>
-      <c r="J186" s="20" t="s">
+      <c r="J186" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K186" s="22">
+      <c r="K186" s="19">
         <f>T173</f>
         <v>0.18012499073453947</v>
       </c>
-      <c r="L186" s="20" t="s">
+      <c r="L186" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="M186" s="22">
+      <c r="M186" s="19">
         <f>U173</f>
         <v>43912.725065712621</v>
       </c>
@@ -29962,35 +31176,35 @@
       <c r="C187" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D187" s="19">
+      <c r="D187" s="16">
         <f>Z172</f>
         <v>0.51975772239484508</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F187" s="19">
+      <c r="F187" s="16">
         <f>AA172</f>
         <v>95593.799373274407</v>
       </c>
       <c r="H187" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I187" s="17">
+      <c r="I187" s="14">
         <f>V173</f>
         <v>0.34256605268434154</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K187" s="17">
+      <c r="K187" s="14">
         <f>W173</f>
         <v>0.18109524119781889</v>
       </c>
       <c r="L187" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M187" s="17">
+      <c r="M187" s="14">
         <f>X173</f>
         <v>33791.928620504514</v>
       </c>
@@ -29999,42 +31213,42 @@
       <c r="A188" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B188" s="19">
+      <c r="B188" s="16">
         <f>AB172</f>
         <v>0.369641999646875</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D188" s="19">
+      <c r="D188" s="16">
         <f>AC172</f>
         <v>0.52535277977475492</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F188" s="19">
+      <c r="F188" s="16">
         <f>AD172</f>
         <v>42257.48299251694</v>
       </c>
-      <c r="H188" s="23" t="s">
+      <c r="H188" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I188" s="17">
+      <c r="I188" s="14">
         <f>Y173</f>
         <v>0.28259624074059714</v>
       </c>
-      <c r="J188" s="23" t="s">
+      <c r="J188" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="K188" s="17">
+      <c r="K188" s="14">
         <f>Z173</f>
         <v>0.18487526475799715</v>
       </c>
-      <c r="L188" s="23" t="s">
+      <c r="L188" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="M188" s="17">
+      <c r="M188" s="14">
         <f>AA173</f>
         <v>100082.53335819198</v>
       </c>
@@ -30064,21 +31278,21 @@
       <c r="H189" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I189" s="17">
+      <c r="I189" s="14">
         <f>AB173</f>
         <v>0.30915518161913275</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K189" s="17">
+      <c r="K189" s="14">
         <f>AC173</f>
         <v>0.17664727170737507</v>
       </c>
       <c r="L189" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M189" s="17">
+      <c r="M189" s="14">
         <f>AD173</f>
         <v>35861.179226331253</v>
       </c>
@@ -30105,24 +31319,24 @@
         <f>AJ172</f>
         <v>127240.01165992093</v>
       </c>
-      <c r="H190" s="20" t="s">
+      <c r="H190" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I190" s="22">
+      <c r="I190" s="19">
         <f>AE173</f>
         <v>0.2461139076667696</v>
       </c>
-      <c r="J190" s="20" t="s">
+      <c r="J190" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K190" s="22">
+      <c r="K190" s="19">
         <f>AF173</f>
         <v>0.17800713822098949</v>
       </c>
-      <c r="L190" s="20" t="s">
+      <c r="L190" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="M190" s="22">
+      <c r="M190" s="19">
         <f>AG173</f>
         <v>139138.43451800779</v>
       </c>
@@ -30131,42 +31345,42 @@
       <c r="A191" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B191" s="19">
+      <c r="B191" s="16">
         <f>AK172</f>
         <v>0.49158680638769803</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D191" s="19">
+      <c r="D191" s="16">
         <f>AL172</f>
         <v>0.54056245797914348</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F191" s="19">
+      <c r="F191" s="16">
         <f>AM172</f>
         <v>44495.679058519221</v>
       </c>
-      <c r="H191" s="20" t="s">
+      <c r="H191" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I191" s="22">
+      <c r="I191" s="19">
         <f>AH173</f>
         <v>0.24367935250583134</v>
       </c>
-      <c r="J191" s="20" t="s">
+      <c r="J191" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K191" s="22">
+      <c r="K191" s="19">
         <f>AI173</f>
         <v>0.17934631275399712</v>
       </c>
-      <c r="L191" s="20" t="s">
+      <c r="L191" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="M191" s="22">
+      <c r="M191" s="19">
         <f>AJ173</f>
         <v>139986.61260870815</v>
       </c>
@@ -30193,24 +31407,24 @@
         <f>AP172</f>
         <v>43079.948495152486</v>
       </c>
-      <c r="H192" s="23" t="s">
+      <c r="H192" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I192" s="17">
+      <c r="I192" s="14">
         <f>AK173</f>
         <v>0.27711478886317831</v>
       </c>
-      <c r="J192" s="23" t="s">
+      <c r="J192" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="K192" s="17">
+      <c r="K192" s="14">
         <f>AL173</f>
         <v>0.18219449465948212</v>
       </c>
-      <c r="L192" s="23" t="s">
+      <c r="L192" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M192" s="17">
+      <c r="M192" s="14">
         <f>AM173</f>
         <v>39093.668300846919</v>
       </c>
@@ -30237,24 +31451,24 @@
         <f>AS172</f>
         <v>42343.946978833301</v>
       </c>
-      <c r="H193" s="20" t="s">
+      <c r="H193" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="I193" s="22">
+      <c r="I193" s="19">
         <f>AN173</f>
         <v>0.29824013658866766</v>
       </c>
-      <c r="J193" s="20" t="s">
+      <c r="J193" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="K193" s="22">
+      <c r="K193" s="19">
         <f>AO173</f>
         <v>0.17571712047662397</v>
       </c>
-      <c r="L193" s="20" t="s">
+      <c r="L193" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="M193" s="22">
+      <c r="M193" s="19">
         <f>AP173</f>
         <v>36366.477665200677</v>
       </c>
@@ -30263,42 +31477,42 @@
       <c r="A194" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B194" s="19">
+      <c r="B194" s="16">
         <f>AT172</f>
         <v>0.28139741842409938</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D194" s="19">
+      <c r="D194" s="16">
         <f>AU172</f>
         <v>0.55651247006542781</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F194" s="19">
+      <c r="F194" s="16">
         <f>AV172</f>
         <v>48063.141701571913</v>
       </c>
-      <c r="H194" s="20" t="s">
+      <c r="H194" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I194" s="22">
+      <c r="I194" s="19">
         <f>AQ173</f>
         <v>0.30807714949360582</v>
       </c>
-      <c r="J194" s="20" t="s">
+      <c r="J194" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K194" s="22">
+      <c r="K194" s="19">
         <f>AR173</f>
         <v>0.17795057904426798</v>
       </c>
-      <c r="L194" s="20" t="s">
+      <c r="L194" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="M194" s="22">
+      <c r="M194" s="19">
         <f>AS173</f>
         <v>36325.266095582985</v>
       </c>
@@ -30328,66 +31542,58 @@
       <c r="H195" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I195" s="17">
+      <c r="I195" s="14">
         <f>AT173</f>
         <v>0.33999446116974236</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K195" s="17">
+      <c r="K195" s="14">
         <f>AU173</f>
         <v>0.18607868597135532</v>
       </c>
       <c r="L195" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M195" s="17">
+      <c r="M195" s="14">
         <f>AV173</f>
         <v>48635.790090594972</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H196" s="20" t="s">
+      <c r="H196" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I196" s="22">
+      <c r="I196" s="19">
         <f>AW173</f>
         <v>0.30915518161913275</v>
       </c>
-      <c r="J196" s="20" t="s">
+      <c r="J196" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="K196" s="22">
+      <c r="K196" s="19">
         <f>AX173</f>
         <v>0.17664727170737507</v>
       </c>
-      <c r="L196" s="20" t="s">
+      <c r="L196" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M196" s="22">
+      <c r="M196" s="19">
         <f>AY173</f>
         <v>35861.179226331253</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H197" s="20"/>
-      <c r="I197" s="20"/>
-      <c r="J197" s="20"/>
-      <c r="K197" s="20"/>
-      <c r="L197" s="20"/>
-      <c r="M197" s="20"/>
+      <c r="H197" s="17"/>
+      <c r="I197" s="17"/>
+      <c r="J197" s="17"/>
+      <c r="K197" s="17"/>
+      <c r="L197" s="17"/>
+      <c r="M197" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A170:C170"/>
-    <mergeCell ref="D170:F170"/>
-    <mergeCell ref="G170:I170"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="X2:Z2"/>
@@ -30400,6 +31606,14 @@
     <mergeCell ref="AD2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="D170:F170"/>
+    <mergeCell ref="G170:I170"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/subDM/subNormDM/medidasEspaciosdecolorDM.xlsx
+++ b/subDM/subNormDM/medidasEspaciosdecolorDM.xlsx
@@ -13,13 +13,17 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="18">
   <si>
     <t>RGB</t>
   </si>
@@ -74,17 +78,13 @@
   <si>
     <t>Euclidiana</t>
   </si>
-  <si>
-    <t>GRIS</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -110,7 +110,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,12 +129,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -148,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -161,30 +155,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -228,7 +211,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$B$178</c:f>
+              <c:f>[1]DM!$C$176</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -249,7 +232,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$A$179:$A$195</c:f>
+              <c:f>[1]DM!$B$177:$B$193</c:f>
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
@@ -308,9 +291,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$179:$B$195</c:f>
+              <c:f>[1]DM!$C$177:$C$193</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.45357269389245919</c:v>
@@ -377,7 +360,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$D$178</c:f>
+              <c:f>[1]DM!$E$176</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -398,7 +381,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$A$179:$A$195</c:f>
+              <c:f>[1]DM!$B$177:$B$193</c:f>
               <c:strCache>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
@@ -457,9 +440,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$179:$D$195</c:f>
+              <c:f>[1]DM!$E$177:$E$193</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.56380811356350868</c:v>
@@ -725,7 +708,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -863,7 +846,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$I$179</c:f>
+              <c:f>[1]DM!$I$176</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -887,11 +870,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Hoja1!$H$180:$H$196</c15:sqref>
+                    <c15:sqref>[1]DM!$H$177:$H$193</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Hoja1!$H$180,Hoja1!$H$183:$H$189,Hoja1!$H$192,Hoja1!$H$195:$H$196)</c:f>
+              <c:f>([1]DM!$H$177,[1]DM!$H$180:$H$186,[1]DM!$H$189,[1]DM!$H$192:$H$193)</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -935,13 +918,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Hoja1!$I$180:$I$196</c15:sqref>
+                    <c15:sqref>[1]DM!$I$177:$I$193</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Hoja1!$I$180,Hoja1!$I$183:$I$189,Hoja1!$I$192,Hoja1!$I$195:$I$196)</c:f>
+              <c:f>([1]DM!$I$177,[1]DM!$I$180:$I$186,[1]DM!$I$189,[1]DM!$I$192:$I$193)</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.2935330446239931</c:v>
@@ -990,7 +973,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$K$179</c:f>
+              <c:f>[1]DM!$K$176</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1014,11 +997,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Hoja1!$H$180:$H$196</c15:sqref>
+                    <c15:sqref>[1]DM!$H$177:$H$193</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Hoja1!$H$180,Hoja1!$H$183:$H$189,Hoja1!$H$192,Hoja1!$H$195:$H$196)</c:f>
+              <c:f>([1]DM!$H$177,[1]DM!$H$180:$H$186,[1]DM!$H$189,[1]DM!$H$192:$H$193)</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -1062,13 +1045,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Hoja1!$K$180:$K$196</c15:sqref>
+                    <c15:sqref>[1]DM!$K$177:$K$193</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Hoja1!$K$180,Hoja1!$K$183:$K$189,Hoja1!$K$192,Hoja1!$K$195:$K$196)</c:f>
+              <c:f>([1]DM!$K$177,[1]DM!$K$180:$K$186,[1]DM!$K$189,[1]DM!$K$192:$K$193)</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.18708992955791137</c:v>
@@ -1329,7 +1312,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1514,7 +1497,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$I$179</c:f>
+              <c:f>[1]DM!$I$176</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1538,11 +1521,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Hoja1!$H$180:$H$196</c15:sqref>
+                    <c15:sqref>[1]DM!$H$177:$H$193</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Hoja1!$H$180,Hoja1!$H$183:$H$189,Hoja1!$H$192,Hoja1!$H$195:$H$196)</c:f>
+              <c:f>([1]DM!$H$177,[1]DM!$H$180:$H$186,[1]DM!$H$189,[1]DM!$H$192:$H$193)</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -1586,13 +1569,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Hoja1!$I$180:$I$196</c15:sqref>
+                    <c15:sqref>[1]DM!$I$177:$I$193</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Hoja1!$I$180,Hoja1!$I$183:$I$189,Hoja1!$I$192,Hoja1!$I$195:$I$196)</c:f>
+              <c:f>([1]DM!$I$177,[1]DM!$I$180:$I$186,[1]DM!$I$189,[1]DM!$I$192:$I$193)</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.2935330446239931</c:v>
@@ -1641,7 +1624,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$K$179</c:f>
+              <c:f>[1]DM!$K$176</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1665,11 +1648,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Hoja1!$H$180:$H$196</c15:sqref>
+                    <c15:sqref>[1]DM!$H$177:$H$193</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Hoja1!$H$180,Hoja1!$H$183:$H$189,Hoja1!$H$192,Hoja1!$H$195:$H$196)</c:f>
+              <c:f>([1]DM!$H$177,[1]DM!$H$180:$H$186,[1]DM!$H$189,[1]DM!$H$192:$H$193)</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -1713,13 +1696,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Hoja1!$K$180:$K$196</c15:sqref>
+                    <c15:sqref>[1]DM!$K$177:$K$193</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Hoja1!$K$180,Hoja1!$K$183:$K$189,Hoja1!$K$192,Hoja1!$K$195:$K$196)</c:f>
+              <c:f>([1]DM!$K$177,[1]DM!$K$180:$K$186,[1]DM!$K$189,[1]DM!$K$192:$K$193)</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.18708992955791137</c:v>
@@ -1951,7 +1934,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3782,6 +3765,376 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="RE"/>
+      <sheetName val="DM"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="176">
+          <cell r="C176" t="str">
+            <v>Correlación</v>
+          </cell>
+          <cell r="E176" t="str">
+            <v>Bhattacharyya</v>
+          </cell>
+          <cell r="I176" t="str">
+            <v>Correlación</v>
+          </cell>
+          <cell r="K176" t="str">
+            <v>Bhattacharyya</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="B177" t="str">
+            <v>RGB</v>
+          </cell>
+          <cell r="C177">
+            <v>0.45357269389245919</v>
+          </cell>
+          <cell r="E177">
+            <v>0.56380811356350868</v>
+          </cell>
+          <cell r="H177" t="str">
+            <v>RGB</v>
+          </cell>
+          <cell r="I177">
+            <v>0.2935330446239931</v>
+          </cell>
+          <cell r="K177">
+            <v>0.18708992955791137</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="B178" t="str">
+            <v>R</v>
+          </cell>
+          <cell r="C178">
+            <v>0.3902200861636167</v>
+          </cell>
+          <cell r="E178">
+            <v>0.51425385270470236</v>
+          </cell>
+          <cell r="H178" t="str">
+            <v>R</v>
+          </cell>
+          <cell r="I178">
+            <v>0.30346453680635954</v>
+          </cell>
+          <cell r="K178">
+            <v>0.17701712429398545</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="B179" t="str">
+            <v>G</v>
+          </cell>
+          <cell r="C179">
+            <v>0.37454911078198877</v>
+          </cell>
+          <cell r="E179">
+            <v>0.51681464198327998</v>
+          </cell>
+          <cell r="H179" t="str">
+            <v>G</v>
+          </cell>
+          <cell r="I179">
+            <v>0.31266807087887832</v>
+          </cell>
+          <cell r="K179">
+            <v>0.17813446796592031</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="B180" t="str">
+            <v>B</v>
+          </cell>
+          <cell r="C180">
+            <v>0.24804974397253318</v>
+          </cell>
+          <cell r="E180">
+            <v>0.55865826209011571</v>
+          </cell>
+          <cell r="H180" t="str">
+            <v>B</v>
+          </cell>
+          <cell r="I180">
+            <v>0.33891206925747608</v>
+          </cell>
+          <cell r="K180">
+            <v>0.18805313223955075</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="B181" t="str">
+            <v>HSV</v>
+          </cell>
+          <cell r="C181">
+            <v>0.36011713643315835</v>
+          </cell>
+          <cell r="E181">
+            <v>0.59186516993139215</v>
+          </cell>
+          <cell r="H181" t="str">
+            <v>HSV</v>
+          </cell>
+          <cell r="I181">
+            <v>0.32895604058961336</v>
+          </cell>
+          <cell r="K181">
+            <v>0.17867102489494938</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="B182" t="str">
+            <v>H</v>
+          </cell>
+          <cell r="C182">
+            <v>0.66706919943024245</v>
+          </cell>
+          <cell r="E182">
+            <v>0.39404631988428473</v>
+          </cell>
+          <cell r="H182" t="str">
+            <v>H</v>
+          </cell>
+          <cell r="I182">
+            <v>0.29926962688053621</v>
+          </cell>
+          <cell r="K182">
+            <v>0.20263459175691312</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="B183" t="str">
+            <v>S</v>
+          </cell>
+          <cell r="C183">
+            <v>0.55954967575293413</v>
+          </cell>
+          <cell r="E183">
+            <v>0.43104618408865997</v>
+          </cell>
+          <cell r="H183" t="str">
+            <v>S</v>
+          </cell>
+          <cell r="I183">
+            <v>0.23906567464697648</v>
+          </cell>
+          <cell r="K183">
+            <v>0.18012499073453947</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="B184" t="str">
+            <v>V</v>
+          </cell>
+          <cell r="C184">
+            <v>0.24213734260211495</v>
+          </cell>
+          <cell r="E184">
+            <v>0.55916963289771771</v>
+          </cell>
+          <cell r="H184" t="str">
+            <v>V</v>
+          </cell>
+          <cell r="I184">
+            <v>0.34256605268434154</v>
+          </cell>
+          <cell r="K184">
+            <v>0.18109524119781889</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="B185" t="str">
+            <v>YUV</v>
+          </cell>
+          <cell r="C185">
+            <v>0.52900443396340446</v>
+          </cell>
+          <cell r="E185">
+            <v>0.51975772239484508</v>
+          </cell>
+          <cell r="H185" t="str">
+            <v>YUV</v>
+          </cell>
+          <cell r="I185">
+            <v>0.28259624074059714</v>
+          </cell>
+          <cell r="K185">
+            <v>0.18487526475799715</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="B186" t="str">
+            <v>Y</v>
+          </cell>
+          <cell r="C186">
+            <v>0.369641999646875</v>
+          </cell>
+          <cell r="E186">
+            <v>0.52535277977475492</v>
+          </cell>
+          <cell r="H186" t="str">
+            <v>Y</v>
+          </cell>
+          <cell r="I186">
+            <v>0.30915518161913275</v>
+          </cell>
+          <cell r="K186">
+            <v>0.17664727170737507</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="B187" t="str">
+            <v>U</v>
+          </cell>
+          <cell r="C187">
+            <v>0.52645796563082625</v>
+          </cell>
+          <cell r="E187">
+            <v>0.51056393614910733</v>
+          </cell>
+          <cell r="H187" t="str">
+            <v>U</v>
+          </cell>
+          <cell r="I187">
+            <v>0.2461139076667696</v>
+          </cell>
+          <cell r="K187">
+            <v>0.17800713822098949</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="B188" t="str">
+            <v>V</v>
+          </cell>
+          <cell r="C188">
+            <v>0.5600754019506472</v>
+          </cell>
+          <cell r="E188">
+            <v>0.46555113014195498</v>
+          </cell>
+          <cell r="H188" t="str">
+            <v>V</v>
+          </cell>
+          <cell r="I188">
+            <v>0.24367935250583134</v>
+          </cell>
+          <cell r="K188">
+            <v>0.17934631275399712</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="B189" t="str">
+            <v>XYZ</v>
+          </cell>
+          <cell r="C189">
+            <v>0.49158680638769803</v>
+          </cell>
+          <cell r="E189">
+            <v>0.54056245797914348</v>
+          </cell>
+          <cell r="H189" t="str">
+            <v>XYZ</v>
+          </cell>
+          <cell r="I189">
+            <v>0.27711478886317831</v>
+          </cell>
+          <cell r="K189">
+            <v>0.18219449465948212</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="B190" t="str">
+            <v>X</v>
+          </cell>
+          <cell r="C190">
+            <v>0.36578514506026188</v>
+          </cell>
+          <cell r="E190">
+            <v>0.52914166284481867</v>
+          </cell>
+          <cell r="H190" t="str">
+            <v>X</v>
+          </cell>
+          <cell r="I190">
+            <v>0.29824013658866766</v>
+          </cell>
+          <cell r="K190">
+            <v>0.17571712047662397</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="B191" t="str">
+            <v>Y</v>
+          </cell>
+          <cell r="C191">
+            <v>0.36825799331885517</v>
+          </cell>
+          <cell r="E191">
+            <v>0.52347507536873039</v>
+          </cell>
+          <cell r="H191" t="str">
+            <v>Y</v>
+          </cell>
+          <cell r="I191">
+            <v>0.30807714949360582</v>
+          </cell>
+          <cell r="K191">
+            <v>0.17795057904426798</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="B192" t="str">
+            <v>Z</v>
+          </cell>
+          <cell r="C192">
+            <v>0.28139741842409938</v>
+          </cell>
+          <cell r="E192">
+            <v>0.55651247006542781</v>
+          </cell>
+          <cell r="H192" t="str">
+            <v>Z</v>
+          </cell>
+          <cell r="I192">
+            <v>0.33999446116974236</v>
+          </cell>
+          <cell r="K192">
+            <v>0.18607868597135532</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="B193" t="str">
+            <v>GRIS</v>
+          </cell>
+          <cell r="C193">
+            <v>0.369641999646875</v>
+          </cell>
+          <cell r="E193">
+            <v>0.52535277977475492</v>
+          </cell>
+          <cell r="H193" t="str">
+            <v>GRIS</v>
+          </cell>
+          <cell r="I193">
+            <v>0.30915518161913275</v>
+          </cell>
+          <cell r="K193">
+            <v>0.17664727170737507</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -4047,8 +4400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BA197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R222" workbookViewId="0">
-      <selection activeCell="AD236" sqref="AD236"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F195" sqref="F195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4059,92 +4412,92 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="F2" s="22" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="F2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="22" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="22" t="s">
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="22" t="s">
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="22" t="s">
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="22" t="s">
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="22" t="s">
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="22" t="s">
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="22" t="s">
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="22" t="s">
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="22" t="s">
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="22" t="s">
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13"/>
+      <c r="AM2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="22" t="s">
+      <c r="AN2" s="13"/>
+      <c r="AO2" s="13"/>
+      <c r="AP2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="AQ2" s="23"/>
-      <c r="AR2" s="23"/>
-      <c r="AS2" s="22" t="s">
+      <c r="AQ2" s="13"/>
+      <c r="AR2" s="13"/>
+      <c r="AS2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AT2" s="23"/>
-      <c r="AU2" s="23"/>
-      <c r="AV2" s="22" t="s">
+      <c r="AT2" s="13"/>
+      <c r="AU2" s="13"/>
+      <c r="AV2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AW2" s="23"/>
-      <c r="AX2" s="23"/>
-      <c r="AY2" s="22" t="s">
+      <c r="AW2" s="13"/>
+      <c r="AX2" s="13"/>
+      <c r="AY2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="AZ2" s="23"/>
-      <c r="BA2" s="23"/>
+      <c r="AZ2" s="13"/>
+      <c r="BA2" s="13"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -29896,21 +30249,21 @@
       </c>
     </row>
     <row r="170" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A170" s="21" t="s">
+      <c r="A170" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B170" s="21"/>
-      <c r="C170" s="21"/>
-      <c r="D170" s="22" t="s">
+      <c r="B170" s="14"/>
+      <c r="C170" s="14"/>
+      <c r="D170" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E170" s="22"/>
-      <c r="F170" s="22"/>
-      <c r="G170" s="22" t="s">
+      <c r="E170" s="12"/>
+      <c r="F170" s="12"/>
+      <c r="G170" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H170" s="22"/>
-      <c r="I170" s="22"/>
+      <c r="H170" s="12"/>
+      <c r="I170" s="12"/>
       <c r="J170" s="5" t="s">
         <v>3</v>
       </c>
@@ -29931,11 +30284,11 @@
       </c>
       <c r="T170" s="6"/>
       <c r="U170" s="6"/>
-      <c r="V170" s="11" t="s">
+      <c r="V170" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="W170" s="12"/>
-      <c r="X170" s="12"/>
+      <c r="W170" s="9"/>
+      <c r="X170" s="9"/>
       <c r="Y170" s="5" t="s">
         <v>8</v>
       </c>
@@ -30046,13 +30399,13 @@
       <c r="U171" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V171" s="11" t="s">
+      <c r="V171" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="W171" s="11" t="s">
+      <c r="W171" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="X171" s="11" t="s">
+      <c r="X171" s="8" t="s">
         <v>17</v>
       </c>
       <c r="Y171" s="5" t="s">
@@ -30211,7 +30564,7 @@
         <v>104952.33081348833</v>
       </c>
       <c r="S172" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(S4:S169)</f>
         <v>0.55954967575293413</v>
       </c>
       <c r="T172" s="2">
@@ -30222,15 +30575,15 @@
         <f t="shared" si="0"/>
         <v>48625.579316288589</v>
       </c>
-      <c r="V172" s="13">
+      <c r="V172" s="10">
         <f t="shared" si="0"/>
         <v>0.24213734260211495</v>
       </c>
-      <c r="W172" s="13">
+      <c r="W172" s="10">
         <f t="shared" si="0"/>
         <v>0.55916963289771771</v>
       </c>
-      <c r="X172" s="13">
+      <c r="X172" s="10">
         <f t="shared" si="0"/>
         <v>39842.915500870673</v>
       </c>
@@ -30428,15 +30781,15 @@
         <f t="shared" si="1"/>
         <v>43912.725065712621</v>
       </c>
-      <c r="V173" s="13">
+      <c r="V173" s="10">
         <f t="shared" si="1"/>
         <v>0.34256605268434154</v>
       </c>
-      <c r="W173" s="13">
+      <c r="W173" s="10">
         <f t="shared" si="1"/>
         <v>0.18109524119781889</v>
       </c>
-      <c r="X173" s="13">
+      <c r="X173" s="10">
         <f t="shared" si="1"/>
         <v>33791.928620504514</v>
       </c>
@@ -30808,792 +31161,24 @@
         <v>6396.303766185687</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B178" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C178" s="4"/>
-      <c r="D178" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E178" s="5"/>
-      <c r="F178" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B179" s="16">
-        <f>A172</f>
-        <v>0.45357269389245919</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D179" s="16">
-        <f>B172</f>
-        <v>0.56380811356350868</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F179" s="16">
-        <f>C172</f>
-        <v>42541.674899304257</v>
-      </c>
-      <c r="H179" s="10"/>
-      <c r="I179" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J179" s="10"/>
-      <c r="K179" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L179" s="10"/>
-      <c r="M179" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>1</v>
-      </c>
-      <c r="B180" s="2">
-        <f>D172</f>
-        <v>0.3902200861636167</v>
-      </c>
-      <c r="C180" t="s">
-        <v>1</v>
-      </c>
-      <c r="D180" s="2">
-        <f>E172</f>
-        <v>0.51425385270470236</v>
-      </c>
-      <c r="E180" t="s">
-        <v>1</v>
-      </c>
-      <c r="F180" s="2">
-        <f>F172</f>
-        <v>43743.628088525977</v>
-      </c>
-      <c r="H180" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I180" s="14">
-        <f>A173</f>
-        <v>0.2935330446239931</v>
-      </c>
-      <c r="J180" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K180" s="14">
-        <f>B173</f>
-        <v>0.18708992955791137</v>
-      </c>
-      <c r="L180" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="M180" s="14">
-        <f>C173</f>
-        <v>35917.028897417949</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>2</v>
-      </c>
-      <c r="B181" s="2">
-        <f>G172</f>
-        <v>0.37454911078198877</v>
-      </c>
-      <c r="C181" t="s">
-        <v>2</v>
-      </c>
-      <c r="D181" s="2">
-        <f>H172</f>
-        <v>0.51681464198327998</v>
-      </c>
-      <c r="E181" t="s">
-        <v>2</v>
-      </c>
-      <c r="F181" s="2">
-        <f>I172</f>
-        <v>42678.512114375473</v>
-      </c>
-      <c r="H181" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="I181" s="18">
-        <f>D173</f>
-        <v>0.30346453680635954</v>
-      </c>
-      <c r="J181" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="K181" s="18">
-        <f>E173</f>
-        <v>0.17701712429398545</v>
-      </c>
-      <c r="L181" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="M181" s="18">
-        <f>F173</f>
-        <v>36594.904084997412</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B182" s="16">
-        <f>J172</f>
-        <v>0.24804974397253318</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D182" s="16">
-        <f>K172</f>
-        <v>0.55865826209011571</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F182" s="16">
-        <f>L172</f>
-        <v>41202.884495011298</v>
-      </c>
-      <c r="H182" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="I182" s="19">
-        <f>G173</f>
-        <v>0.31266807087887832</v>
-      </c>
-      <c r="J182" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="K182" s="19">
-        <f>H173</f>
-        <v>0.17813446796592031</v>
-      </c>
-      <c r="L182" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="M182" s="19">
-        <f>I173</f>
-        <v>37744.623472792366</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B183" s="16">
-        <f>M172</f>
-        <v>0.36011713643315835</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D183" s="16">
-        <f>N172</f>
-        <v>0.59186516993139215</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F183" s="16">
-        <f>O172</f>
-        <v>64473.608543549206</v>
-      </c>
-      <c r="G183" s="2"/>
-      <c r="H183" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I183" s="14">
-        <f>J173</f>
-        <v>0.33891206925747608</v>
-      </c>
-      <c r="J183" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K183" s="14">
-        <f>K173</f>
-        <v>0.18805313223955075</v>
-      </c>
-      <c r="L183" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M183" s="14">
-        <f>L173</f>
-        <v>34988.081860482656</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>5</v>
-      </c>
-      <c r="B184" s="2">
-        <f>P172</f>
-        <v>0.66706919943024245</v>
-      </c>
-      <c r="C184" t="s">
-        <v>5</v>
-      </c>
-      <c r="D184" s="2">
-        <f>Q172</f>
-        <v>0.39404631988428473</v>
-      </c>
-      <c r="E184" t="s">
-        <v>5</v>
-      </c>
-      <c r="F184" s="2">
-        <f>R172</f>
-        <v>104952.33081348833</v>
-      </c>
-      <c r="H184" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="I184" s="14">
-        <f>M173</f>
-        <v>0.32895604058961336</v>
-      </c>
-      <c r="J184" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="K184" s="14">
-        <f>N173</f>
-        <v>0.17867102489494938</v>
-      </c>
-      <c r="L184" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="M184" s="14">
-        <f>O173</f>
-        <v>59381.691897960482</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>6</v>
-      </c>
-      <c r="B185" s="2">
-        <f>S172</f>
-        <v>0.55954967575293413</v>
-      </c>
-      <c r="C185" t="s">
-        <v>6</v>
-      </c>
-      <c r="D185" s="2">
-        <f>T172</f>
-        <v>0.43104618408865997</v>
-      </c>
-      <c r="E185" t="s">
-        <v>6</v>
-      </c>
-      <c r="F185" s="2">
-        <f>U172</f>
-        <v>48625.579316288589</v>
-      </c>
-      <c r="H185" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="I185" s="19">
-        <f>P173</f>
-        <v>0.29926962688053621</v>
-      </c>
-      <c r="J185" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="K185" s="19">
-        <f>Q173</f>
-        <v>0.20263459175691312</v>
-      </c>
-      <c r="L185" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="M185" s="19">
-        <f>R173</f>
-        <v>108984.22855936462</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A186" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B186" s="8">
-        <f>V172</f>
-        <v>0.24213734260211495</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D186" s="16">
-        <f>W172</f>
-        <v>0.55916963289771771</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F186" s="16">
-        <f>X172</f>
-        <v>39842.915500870673</v>
-      </c>
-      <c r="H186" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I186" s="19">
-        <f>S173</f>
-        <v>0.23906567464697648</v>
-      </c>
-      <c r="J186" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="K186" s="19">
-        <f>T173</f>
-        <v>0.18012499073453947</v>
-      </c>
-      <c r="L186" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="M186" s="19">
-        <f>U173</f>
-        <v>43912.725065712621</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A187" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B187" s="8">
-        <f>Y172</f>
-        <v>0.52900443396340446</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D187" s="16">
-        <f>Z172</f>
-        <v>0.51975772239484508</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F187" s="16">
-        <f>AA172</f>
-        <v>95593.799373274407</v>
-      </c>
-      <c r="H187" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I187" s="14">
-        <f>V173</f>
-        <v>0.34256605268434154</v>
-      </c>
-      <c r="J187" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K187" s="14">
-        <f>W173</f>
-        <v>0.18109524119781889</v>
-      </c>
-      <c r="L187" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M187" s="14">
-        <f>X173</f>
-        <v>33791.928620504514</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B188" s="16">
-        <f>AB172</f>
-        <v>0.369641999646875</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D188" s="16">
-        <f>AC172</f>
-        <v>0.52535277977475492</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F188" s="16">
-        <f>AD172</f>
-        <v>42257.48299251694</v>
-      </c>
-      <c r="H188" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="I188" s="14">
-        <f>Y173</f>
-        <v>0.28259624074059714</v>
-      </c>
-      <c r="J188" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="K188" s="14">
-        <f>Z173</f>
-        <v>0.18487526475799715</v>
-      </c>
-      <c r="L188" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="M188" s="14">
-        <f>AA173</f>
-        <v>100082.53335819198</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>10</v>
-      </c>
-      <c r="B189" s="2">
-        <f>AE172</f>
-        <v>0.52645796563082625</v>
-      </c>
-      <c r="C189" t="s">
-        <v>10</v>
-      </c>
-      <c r="D189" s="2">
-        <f>AF172</f>
-        <v>0.51056393614910733</v>
-      </c>
-      <c r="E189" t="s">
-        <v>10</v>
-      </c>
-      <c r="F189" s="2">
-        <f>AG172</f>
-        <v>117283.90346738517</v>
-      </c>
-      <c r="H189" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I189" s="14">
-        <f>AB173</f>
-        <v>0.30915518161913275</v>
-      </c>
-      <c r="J189" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K189" s="14">
-        <f>AC173</f>
-        <v>0.17664727170737507</v>
-      </c>
-      <c r="L189" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M189" s="14">
-        <f>AD173</f>
-        <v>35861.179226331253</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>7</v>
-      </c>
-      <c r="B190" s="2">
-        <f>AH172</f>
-        <v>0.5600754019506472</v>
-      </c>
-      <c r="C190" t="s">
-        <v>7</v>
-      </c>
-      <c r="D190" s="2">
-        <f>AI172</f>
-        <v>0.46555113014195498</v>
-      </c>
-      <c r="E190" t="s">
-        <v>7</v>
-      </c>
-      <c r="F190" s="2">
-        <f>AJ172</f>
-        <v>127240.01165992093</v>
-      </c>
-      <c r="H190" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I190" s="19">
-        <f>AE173</f>
-        <v>0.2461139076667696</v>
-      </c>
-      <c r="J190" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K190" s="19">
-        <f>AF173</f>
-        <v>0.17800713822098949</v>
-      </c>
-      <c r="L190" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="M190" s="19">
-        <f>AG173</f>
-        <v>139138.43451800779</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B191" s="16">
-        <f>AK172</f>
-        <v>0.49158680638769803</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D191" s="16">
-        <f>AL172</f>
-        <v>0.54056245797914348</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F191" s="16">
-        <f>AM172</f>
-        <v>44495.679058519221</v>
-      </c>
-      <c r="H191" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I191" s="19">
-        <f>AH173</f>
-        <v>0.24367935250583134</v>
-      </c>
-      <c r="J191" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K191" s="19">
-        <f>AI173</f>
-        <v>0.17934631275399712</v>
-      </c>
-      <c r="L191" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M191" s="19">
-        <f>AJ173</f>
-        <v>139986.61260870815</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>12</v>
-      </c>
-      <c r="B192" s="2">
-        <f>AN172</f>
-        <v>0.36578514506026188</v>
-      </c>
-      <c r="C192" t="s">
-        <v>12</v>
-      </c>
-      <c r="D192" s="2">
-        <f>AO172</f>
-        <v>0.52914166284481867</v>
-      </c>
-      <c r="E192" t="s">
-        <v>12</v>
-      </c>
-      <c r="F192" s="2">
-        <f>AP172</f>
-        <v>43079.948495152486</v>
-      </c>
-      <c r="H192" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I192" s="14">
-        <f>AK173</f>
-        <v>0.27711478886317831</v>
-      </c>
-      <c r="J192" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="14">
-        <f>AL173</f>
-        <v>0.18219449465948212</v>
-      </c>
-      <c r="L192" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="M192" s="14">
-        <f>AM173</f>
-        <v>39093.668300846919</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>9</v>
-      </c>
-      <c r="B193" s="2">
-        <f>AQ172</f>
-        <v>0.36825799331885517</v>
-      </c>
-      <c r="C193" t="s">
-        <v>9</v>
-      </c>
-      <c r="D193" s="2">
-        <f>AR172</f>
-        <v>0.52347507536873039</v>
-      </c>
-      <c r="E193" t="s">
-        <v>9</v>
-      </c>
-      <c r="F193" s="2">
-        <f>AS172</f>
-        <v>42343.946978833301</v>
-      </c>
-      <c r="H193" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="I193" s="19">
-        <f>AN173</f>
-        <v>0.29824013658866766</v>
-      </c>
-      <c r="J193" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="K193" s="19">
-        <f>AO173</f>
-        <v>0.17571712047662397</v>
-      </c>
-      <c r="L193" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="M193" s="19">
-        <f>AP173</f>
-        <v>36366.477665200677</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B194" s="16">
-        <f>AT172</f>
-        <v>0.28139741842409938</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D194" s="16">
-        <f>AU172</f>
-        <v>0.55651247006542781</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F194" s="16">
-        <f>AV172</f>
-        <v>48063.141701571913</v>
-      </c>
-      <c r="H194" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I194" s="19">
-        <f>AQ173</f>
-        <v>0.30807714949360582</v>
-      </c>
-      <c r="J194" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="K194" s="19">
-        <f>AR173</f>
-        <v>0.17795057904426798</v>
-      </c>
-      <c r="L194" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="M194" s="19">
-        <f>AS173</f>
-        <v>36325.266095582985</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>18</v>
-      </c>
-      <c r="B195" s="2">
-        <f>AW172</f>
-        <v>0.369641999646875</v>
-      </c>
-      <c r="C195" t="s">
-        <v>18</v>
-      </c>
-      <c r="D195" s="2">
-        <f>AX172</f>
-        <v>0.52535277977475492</v>
-      </c>
-      <c r="E195" t="s">
-        <v>18</v>
-      </c>
-      <c r="F195" s="2">
-        <f>AY172</f>
-        <v>42257.48299251694</v>
-      </c>
-      <c r="H195" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I195" s="14">
-        <f>AT173</f>
-        <v>0.33999446116974236</v>
-      </c>
-      <c r="J195" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K195" s="14">
-        <f>AU173</f>
-        <v>0.18607868597135532</v>
-      </c>
-      <c r="L195" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M195" s="14">
-        <f>AV173</f>
-        <v>48635.790090594972</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H196" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I196" s="19">
-        <f>AW173</f>
-        <v>0.30915518161913275</v>
-      </c>
-      <c r="J196" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K196" s="19">
-        <f>AX173</f>
-        <v>0.17664727170737507</v>
-      </c>
-      <c r="L196" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M196" s="19">
-        <f>AY173</f>
-        <v>35861.179226331253</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H197" s="17"/>
-      <c r="I197" s="17"/>
-      <c r="J197" s="17"/>
-      <c r="K197" s="17"/>
-      <c r="L197" s="17"/>
-      <c r="M197" s="17"/>
+    <row r="197" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H197" s="11"/>
+      <c r="I197" s="11"/>
+      <c r="J197" s="11"/>
+      <c r="K197" s="11"/>
+      <c r="L197" s="11"/>
+      <c r="M197" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="D170:F170"/>
+    <mergeCell ref="G170:I170"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="X2:Z2"/>
@@ -31606,17 +31191,29 @@
     <mergeCell ref="AD2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="A170:C170"/>
-    <mergeCell ref="D170:F170"/>
-    <mergeCell ref="G170:I170"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A19:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>